--- a/python/Dichotomous Keys/Key to Families of Plant and Soil Nematodes.xlsx
+++ b/python/Dichotomous Keys/Key to Families of Plant and Soil Nematodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\var\www\WKW\public_html\Identification_keys_redo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\var\www\WKW_001\python\Dichotomous Keys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF315CEF-CB26-4B1F-B0B8-2F97B1911729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549FE3C8-50D7-43CD-9152-508567D0042C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="1485" windowWidth="24720" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31845" yWindow="1125" windowWidth="25050" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="176">
-  <si>
-    <t>Genus</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="135">
   <si>
     <t>KeyFrom</t>
   </si>
@@ -34,27 +31,12 @@
     <t>Description</t>
   </si>
   <si>
-    <t>go to 2</t>
-  </si>
-  <si>
     <t>Nematodes without protrusible stylet or spear</t>
   </si>
   <si>
-    <t>go to 24</t>
-  </si>
-  <si>
-    <t>go to 3</t>
-  </si>
-  <si>
-    <t>go to 16</t>
-  </si>
-  <si>
     <t>Median bulb large with refractive valve, flattened against body wall, stylet knobs absent or small</t>
   </si>
   <si>
-    <t>go to 4</t>
-  </si>
-  <si>
     <t>Median bulb not refractive, stylet knobs obvious</t>
   </si>
   <si>
@@ -73,27 +55,12 @@
     <t>Esophageal glands enclosed in bulb that abuts intestine</t>
   </si>
   <si>
-    <t>go to 11</t>
-  </si>
-  <si>
-    <t>go to 7</t>
-  </si>
-  <si>
-    <t>go to 10</t>
-  </si>
-  <si>
     <t>Tail tip, anus and vulva in close proximity on posterior of swollen female, male body twisted, male without bursa</t>
   </si>
   <si>
-    <t>go to 8</t>
-  </si>
-  <si>
     <t>Anus and vulva anterior to tail tip even when female swollen, male body not twisted, male with bursa</t>
   </si>
   <si>
-    <t>go to 9</t>
-  </si>
-  <si>
     <t>Cephalic-framework weak or absent</t>
   </si>
   <si>
@@ -106,33 +73,18 @@
     <t>Posterior female gonad reduced to a post-uterine sac, males with adanal bursa (if present)</t>
   </si>
   <si>
-    <t>go to 12</t>
-  </si>
-  <si>
     <t>Stylet short (&lt; stylet body diameter), tail pointed to filiform</t>
   </si>
   <si>
-    <t>go to 13</t>
-  </si>
-  <si>
-    <t>go to 14</t>
-  </si>
-  <si>
     <t>Tylenchidae</t>
   </si>
   <si>
-    <t>go to 15</t>
-  </si>
-  <si>
     <t>Spear with complex configuration, loose-fitting cuticle</t>
   </si>
   <si>
     <t>Spear simple, cuticle not loose but may be swollen</t>
   </si>
   <si>
-    <t>go to 17</t>
-  </si>
-  <si>
     <t>Spear dorsally curved, anus almost terminal</t>
   </si>
   <si>
@@ -142,9 +94,6 @@
     <t>Spear straight, anus not terminal - tail present</t>
   </si>
   <si>
-    <t>go to 18</t>
-  </si>
-  <si>
     <t>Long, slender nematodes (1-12 mm), spear &gt; 50 µm, long spear extension (odontophore)</t>
   </si>
   <si>
@@ -163,24 +112,12 @@
     <t>No muscular sheath around esophagus</t>
   </si>
   <si>
-    <t>go to 20</t>
-  </si>
-  <si>
     <t>Leptonchidae</t>
   </si>
   <si>
-    <t>go to 21</t>
-  </si>
-  <si>
     <t>Plump nematodes, tail rounded, with or without point</t>
   </si>
   <si>
-    <t>go to 22</t>
-  </si>
-  <si>
-    <t>go to 23</t>
-  </si>
-  <si>
     <t>Spear slightly curved, small opening</t>
   </si>
   <si>
@@ -202,9 +139,6 @@
     <t>Body symmetrical</t>
   </si>
   <si>
-    <t>go to 25</t>
-  </si>
-  <si>
     <t>Median bulb present, tail filiform</t>
   </si>
   <si>
@@ -214,33 +148,18 @@
     <t>Median bulb absent</t>
   </si>
   <si>
-    <t>go to 26</t>
-  </si>
-  <si>
     <t>Esophagus with terminal bulb or swelling</t>
   </si>
   <si>
-    <t>go to 27</t>
-  </si>
-  <si>
     <t>Esophagus cylindrical, no swellings</t>
   </si>
   <si>
-    <t>go to 37</t>
-  </si>
-  <si>
     <t>Terminal bulb without valves</t>
   </si>
   <si>
-    <t>go to 28</t>
-  </si>
-  <si>
     <t>Terminal bulb with valves</t>
   </si>
   <si>
-    <t>go to 29</t>
-  </si>
-  <si>
     <t>Cuticle not striated</t>
   </si>
   <si>
@@ -256,27 +175,15 @@
     <t>Cuticle without punctations</t>
   </si>
   <si>
-    <t>go to 30</t>
-  </si>
-  <si>
     <t>Stoma cavity without teeth</t>
   </si>
   <si>
-    <t>go to 31</t>
-  </si>
-  <si>
     <t>Head with labial extensions or crown</t>
   </si>
   <si>
-    <t>go to 32</t>
-  </si>
-  <si>
     <t>Head without extensions</t>
   </si>
   <si>
-    <t>go to 34</t>
-  </si>
-  <si>
     <t>Head with lateral cuticular extensions</t>
   </si>
   <si>
@@ -286,9 +193,6 @@
     <t>Head with anterior extensions only</t>
   </si>
   <si>
-    <t>go to 33</t>
-  </si>
-  <si>
     <t>Labial extensions crown-shaped</t>
   </si>
   <si>
@@ -304,9 +208,6 @@
     <t>Tail tip without spinneret</t>
   </si>
   <si>
-    <t>go to 35</t>
-  </si>
-  <si>
     <t>Stoma cavity cylindrical, cuticular walls, males with bursa</t>
   </si>
   <si>
@@ -316,9 +217,6 @@
     <t>Stoma cavity funnel-shaped, walls not cuticular, posterior female gonad reduced, anterior gonad reflexed and extending beyond vulva</t>
   </si>
   <si>
-    <t>go to 36</t>
-  </si>
-  <si>
     <t>Stoma cavity clearly present, anteriorly cylindrical</t>
   </si>
   <si>
@@ -331,39 +229,24 @@
     <t>Cuticle striated</t>
   </si>
   <si>
-    <t>go to 38</t>
-  </si>
-  <si>
     <t>Alaimidae</t>
   </si>
   <si>
     <t>Clear stoma cavity or setae</t>
   </si>
   <si>
-    <t>go to 39</t>
-  </si>
-  <si>
     <t>Amphids round, clearly visible</t>
   </si>
   <si>
     <t>Amphids difficult to see, not round</t>
   </si>
   <si>
-    <t>go to 40</t>
-  </si>
-  <si>
     <t>Stoma cavity large, walls cuticular walls</t>
   </si>
   <si>
-    <t>go to 41</t>
-  </si>
-  <si>
     <t>Stoma cavity funnel-shaped or closed anteriorly, walls not cuticular</t>
   </si>
   <si>
-    <t>go to 42</t>
-  </si>
-  <si>
     <t>Prismatolaimidae</t>
   </si>
   <si>
@@ -454,18 +337,9 @@
     <t xml:space="preserve">Tail not filiform, large stoma cavity with teeth </t>
   </si>
   <si>
-    <t>go to 5</t>
-  </si>
-  <si>
-    <t>go to 6</t>
-  </si>
-  <si>
     <t>Diphtherophoridae</t>
   </si>
   <si>
-    <t>go to 19</t>
-  </si>
-  <si>
     <t>Thornenematidae</t>
   </si>
   <si>
@@ -548,6 +422,9 @@
   </si>
   <si>
     <t>Heteroderinae</t>
+  </si>
+  <si>
+    <t>Nematode Specimen</t>
   </si>
 </sst>
 </file>
@@ -1395,195 +1272,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE7393B-9249-453F-80AD-245ABE36B8F0}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:XFD105"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="97.625" customWidth="1"/>
+    <col min="2" max="2" width="57.125" customWidth="1"/>
     <col min="3" max="3" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" t="s">
-        <v>175</v>
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1591,10 +1465,10 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1602,21 +1476,21 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1624,10 +1498,10 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1635,10 +1509,10 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1646,21 +1520,21 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1668,10 +1542,10 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1679,21 +1553,21 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1701,21 +1575,21 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28">
         <v>12</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1723,21 +1597,21 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" t="s">
-        <v>32</v>
+        <v>88</v>
+      </c>
+      <c r="C30">
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1745,21 +1619,21 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
         <v>14</v>
-      </c>
-      <c r="B32" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1767,10 +1641,10 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>163</v>
-      </c>
-      <c r="C33" t="s">
-        <v>161</v>
+        <v>91</v>
+      </c>
+      <c r="C33">
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1778,21 +1652,21 @@
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1800,21 +1674,21 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1822,21 +1696,21 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39">
         <v>17</v>
-      </c>
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1844,21 +1718,21 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41">
         <v>18</v>
-      </c>
-      <c r="B41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1866,21 +1740,21 @@
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>147</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43">
         <v>19</v>
-      </c>
-      <c r="B43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1888,21 +1762,21 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45">
         <v>20</v>
-      </c>
-      <c r="B45" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1910,21 +1784,21 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47">
         <v>21</v>
-      </c>
-      <c r="B47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1932,21 +1806,21 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" t="s">
-        <v>52</v>
+        <v>31</v>
+      </c>
+      <c r="C48">
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" t="s">
-        <v>54</v>
+        <v>94</v>
+      </c>
+      <c r="C49">
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1954,21 +1828,21 @@
         <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="C51" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1976,21 +1850,21 @@
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1998,21 +1872,21 @@
         <v>24</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55">
         <v>25</v>
-      </c>
-      <c r="B55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2020,21 +1894,21 @@
         <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
+        <v>25</v>
+      </c>
+      <c r="B57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57">
         <v>26</v>
-      </c>
-      <c r="B57" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2042,21 +1916,21 @@
         <v>26</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" t="s">
-        <v>68</v>
+        <v>42</v>
+      </c>
+      <c r="C58">
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" t="s">
-        <v>70</v>
+        <v>43</v>
+      </c>
+      <c r="C59">
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2064,21 +1938,21 @@
         <v>27</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" t="s">
-        <v>72</v>
+        <v>44</v>
+      </c>
+      <c r="C60">
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" t="s">
-        <v>74</v>
+        <v>45</v>
+      </c>
+      <c r="C61">
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -2086,21 +1960,21 @@
         <v>28</v>
       </c>
       <c r="B62" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -2108,21 +1982,21 @@
         <v>29</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
+        <v>29</v>
+      </c>
+      <c r="B65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65">
         <v>30</v>
-      </c>
-      <c r="B65" t="s">
-        <v>138</v>
-      </c>
-      <c r="C65" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2130,21 +2004,21 @@
         <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
+        <v>30</v>
+      </c>
+      <c r="B67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67">
         <v>31</v>
-      </c>
-      <c r="B67" t="s">
-        <v>81</v>
-      </c>
-      <c r="C67" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2152,21 +2026,21 @@
         <v>31</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" t="s">
-        <v>84</v>
+        <v>52</v>
+      </c>
+      <c r="C68">
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B69" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" t="s">
-        <v>86</v>
+        <v>53</v>
+      </c>
+      <c r="C69">
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2174,21 +2048,21 @@
         <v>32</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C70" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
+        <v>32</v>
+      </c>
+      <c r="B71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71">
         <v>33</v>
-      </c>
-      <c r="B71" t="s">
-        <v>89</v>
-      </c>
-      <c r="C71" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2196,21 +2070,21 @@
         <v>33</v>
       </c>
       <c r="B72" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C72" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B73" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2218,21 +2092,21 @@
         <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
+        <v>34</v>
+      </c>
+      <c r="B75" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75">
         <v>35</v>
-      </c>
-      <c r="B75" t="s">
-        <v>95</v>
-      </c>
-      <c r="C75" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2240,21 +2114,21 @@
         <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C76" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
+        <v>35</v>
+      </c>
+      <c r="B77" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77">
         <v>36</v>
-      </c>
-      <c r="B77" t="s">
-        <v>99</v>
-      </c>
-      <c r="C77" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2262,21 +2136,21 @@
         <v>36</v>
       </c>
       <c r="B78" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="C78" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="C79" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2284,21 +2158,21 @@
         <v>37</v>
       </c>
       <c r="B80" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="C80" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
+        <v>37</v>
+      </c>
+      <c r="B81" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81">
         <v>38</v>
-      </c>
-      <c r="B81" t="s">
-        <v>141</v>
-      </c>
-      <c r="C81" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2306,21 +2180,21 @@
         <v>38</v>
       </c>
       <c r="B82" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C82" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
+        <v>38</v>
+      </c>
+      <c r="B83" t="s">
+        <v>70</v>
+      </c>
+      <c r="C83">
         <v>39</v>
-      </c>
-      <c r="B83" t="s">
-        <v>107</v>
-      </c>
-      <c r="C83" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2328,21 +2202,21 @@
         <v>39</v>
       </c>
       <c r="B84" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="C84" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
+        <v>39</v>
+      </c>
+      <c r="B85" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85">
         <v>40</v>
-      </c>
-      <c r="B85" t="s">
-        <v>110</v>
-      </c>
-      <c r="C85" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2350,21 +2224,21 @@
         <v>40</v>
       </c>
       <c r="B86" t="s">
-        <v>112</v>
-      </c>
-      <c r="C86" t="s">
-        <v>113</v>
+        <v>73</v>
+      </c>
+      <c r="C86">
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B87" t="s">
-        <v>142</v>
-      </c>
-      <c r="C87" t="s">
-        <v>114</v>
+        <v>74</v>
+      </c>
+      <c r="C87">
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2372,32 +2246,43 @@
         <v>41</v>
       </c>
       <c r="B88" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="C88" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B89" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C89" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>42</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>118</v>
+      <c r="B90" t="s">
+        <v>77</v>
       </c>
       <c r="C90" t="s">
-        <v>119</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>42</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
